--- a/02_MasterWifoMannheim/04_Graph/edges.xlsx
+++ b/02_MasterWifoMannheim/04_Graph/edges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/04_Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="978" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{564D112E-A678-4CF7-B09F-A0C680CE3063}"/>
+  <xr:revisionPtr revIDLastSave="985" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375C50D9-B56C-463D-A304-A1908E2B9AB3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,11 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -733,7 +732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -741,7 +740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -749,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -757,7 +756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -765,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -773,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -781,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -789,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -813,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -821,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -829,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -837,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -845,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -853,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -861,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -869,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -877,7 +876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -885,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -893,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -901,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -909,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -917,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -925,7 +924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -933,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -941,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -949,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -957,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -965,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -973,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -981,7 +980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -989,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -997,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -1333,7 +1332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>54</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>55</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>57</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>61</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>61</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>63</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>64</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>64</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>64</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>65</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>65</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>66</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>66</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>67</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>67</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>68</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>70</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>70</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>70</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>71</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>71</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>71</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>71</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>75</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>75</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>75</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>76</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>77</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>77</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>77</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>82</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>84</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>86</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>87</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>89</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>89</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>89</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>91</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>92</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>93</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>94</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>106</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>105</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>95</v>
       </c>
@@ -1917,7 +1916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>96</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>97</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>97</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>98</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>100</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>101</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>102</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>102</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>102</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>104</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>108</v>
       </c>
@@ -2030,13 +2029,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B164" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CS 605 GPU-Programmierung GPU Programming"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B164" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/02_MasterWifoMannheim/04_Graph/edges.xlsx
+++ b/02_MasterWifoMannheim/04_Graph/edges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/04_Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="985" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375C50D9-B56C-463D-A304-A1908E2B9AB3}"/>
+  <xr:revisionPtr revIDLastSave="989" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF823BB-E676-4039-BBE8-2C112C222802}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1500" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="111">
   <si>
     <t>Outgoing</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>CS 605 GPU Programming</t>
+  </si>
+  <si>
+    <t>TP 500 Team Project Split 2</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B164"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -732,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -740,7 +744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -748,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -756,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -764,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -772,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -780,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -788,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -796,7 +800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -804,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -812,7 +816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -820,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -828,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -836,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -844,7 +848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -852,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -860,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -868,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -876,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -884,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -892,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -900,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -908,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -916,7 +920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -924,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -932,7 +936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -940,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -948,7 +952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -956,7 +960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -964,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -972,7 +976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -980,7 +984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -988,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -1156,7 +1160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -1308,7 +1312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -1372,7 +1376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>54</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>55</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>57</v>
       </c>
@@ -1452,7 +1456,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>61</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>61</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>63</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>64</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>64</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>64</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>65</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>65</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>66</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>66</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>67</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>67</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>68</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -1628,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>70</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>70</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>70</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>71</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>71</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>71</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>71</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>75</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>75</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>75</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>76</v>
       </c>
@@ -1756,7 +1760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>77</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>77</v>
       </c>
@@ -1772,7 +1776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>77</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>82</v>
       </c>
@@ -1796,7 +1800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>84</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -1812,7 +1816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>86</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>87</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>89</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>89</v>
       </c>
@@ -1852,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>89</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>91</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>92</v>
       </c>
@@ -1876,7 +1880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>93</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>94</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>106</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>105</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>95</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>96</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>97</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>97</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>98</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>100</v>
       </c>
@@ -1964,7 +1968,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>101</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>102</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>102</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>102</v>
       </c>
@@ -1996,7 +2000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>104</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>108</v>
       </c>
@@ -2028,8 +2032,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>110</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B164" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B164" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TP 500 Team Project"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/02_MasterWifoMannheim/04_Graph/edges.xlsx
+++ b/02_MasterWifoMannheim/04_Graph/edges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/04_Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="989" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF823BB-E676-4039-BBE8-2C112C222802}"/>
+  <xr:revisionPtr revIDLastSave="990" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA4B364-7D69-4D40-BEB2-BBDA4977C8D3}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1500" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>IE 689 Relational Learning</t>
   </si>
   <si>
-    <t>TP 500 Team Project</t>
-  </si>
-  <si>
     <t>SQ 500 Scientific Research</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>TP 500 Team Project Split 2</t>
+  </si>
+  <si>
+    <t>TP 500 Team Project Full</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +802,7 @@
     </row>
     <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -1410,15 +1410,15 @@
     </row>
     <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -1450,47 +1450,47 @@
     </row>
     <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
@@ -1498,23 +1498,23 @@
     </row>
     <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -1522,15 +1522,15 @@
     </row>
     <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -1554,15 +1554,15 @@
     </row>
     <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -1578,15 +1578,15 @@
     </row>
     <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -1610,15 +1610,15 @@
     </row>
     <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -1634,15 +1634,15 @@
     </row>
     <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -1682,31 +1682,31 @@
     </row>
     <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" t="s">
         <v>71</v>
-      </c>
-      <c r="B121" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -1754,15 +1754,15 @@
     </row>
     <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -1770,31 +1770,31 @@
     </row>
     <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" t="s">
         <v>82</v>
-      </c>
-      <c r="B134" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -1802,15 +1802,15 @@
     </row>
     <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -1818,39 +1818,39 @@
     </row>
     <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" t="s">
         <v>87</v>
-      </c>
-      <c r="B139" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -1858,31 +1858,31 @@
     </row>
     <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" t="s">
         <v>89</v>
-      </c>
-      <c r="B143" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
@@ -1922,15 +1922,15 @@
     </row>
     <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -1946,39 +1946,39 @@
     </row>
     <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B154" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B155" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B156" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
@@ -1986,39 +1986,39 @@
     </row>
     <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B160" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B161" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B162" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
